--- a/JuneCRMProject/target/test-classes/suitea.xlsx
+++ b/JuneCRMProject/target/test-classes/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="7575" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="7575" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>signinbutton</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -311,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -325,6 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,10 +682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -697,6 +701,9 @@
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
@@ -714,7 +721,9 @@
       <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
@@ -732,6 +741,9 @@
       <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F3" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
@@ -749,11 +761,37 @@
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="F6" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="s">
@@ -771,6 +809,9 @@
       <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="F7" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
@@ -787,6 +828,29 @@
       </c>
       <c r="E8" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -797,6 +861,9 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
+      <c r="F10" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11" t="s">
@@ -814,6 +881,9 @@
       <c r="E11" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="F11" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
@@ -830,6 +900,29 @@
       </c>
       <c r="E12" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -846,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/JuneCRMProject/target/test-classes/suitea.xlsx
+++ b/JuneCRMProject/target/test-classes/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="7575" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="7575" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/JuneCRMProject/target/test-classes/suitea.xlsx
+++ b/JuneCRMProject/target/test-classes/suitea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Verify The Page Title</t>
+  </si>
+  <si>
+    <t>verifyTitle</t>
   </si>
 </sst>
 </file>
@@ -937,10 +943,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -997,19 +1003,17 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" s="8" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>38</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
@@ -1017,91 +1021,91 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
@@ -1109,13 +1113,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -1123,9 +1127,15 @@
       <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5">
@@ -1137,6 +1147,15 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JuneCRMProject/target/test-classes/suitea.xlsx
+++ b/JuneCRMProject/target/test-classes/suitea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="48">
   <si>
     <t>TCID</t>
   </si>
@@ -138,15 +138,6 @@
     <t>username</t>
   </si>
   <si>
-    <t>nextbutton</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>signinbutton</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -154,6 +145,21 @@
   </si>
   <si>
     <t>verifyTitle</t>
+  </si>
+  <si>
+    <t>loginlink_xpath</t>
+  </si>
+  <si>
+    <t>username_id</t>
+  </si>
+  <si>
+    <t>nextbutton_css</t>
+  </si>
+  <si>
+    <t>password_name</t>
+  </si>
+  <si>
+    <t>signinbutton_xpath</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -728,7 +734,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -748,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -768,27 +774,27 @@
         <v>15</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -796,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -816,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -836,27 +842,27 @@
         <v>15</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -868,7 +874,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -888,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -908,27 +914,27 @@
         <v>15</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +952,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -954,7 +960,7 @@
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1008,10 +1014,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1027,7 +1033,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -1042,7 +1048,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
@@ -1059,7 +1065,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -1074,7 +1080,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>10</v>
@@ -1091,7 +1097,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E9" s="9"/>
     </row>
